--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value409.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value409.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.263270715375047</v>
+        <v>3.710788488388062</v>
       </c>
       <c r="B1">
-        <v>1.981494448151678</v>
+        <v>2.708538293838501</v>
       </c>
       <c r="C1">
-        <v>3.274441646489434</v>
+        <v>1.842766404151917</v>
       </c>
       <c r="D1">
-        <v>1.909430813732876</v>
+        <v>1.631384968757629</v>
       </c>
       <c r="E1">
-        <v>0.4533313435883816</v>
+        <v>1.586158871650696</v>
       </c>
     </row>
   </sheetData>
